--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Grn-Tnfrsf1a.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Grn-Tnfrsf1a.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>66.851111</v>
+        <v>45.31778466666666</v>
       </c>
       <c r="H2">
-        <v>200.553333</v>
+        <v>135.953354</v>
       </c>
       <c r="I2">
-        <v>0.1215550702639513</v>
+        <v>0.1102361023838286</v>
       </c>
       <c r="J2">
-        <v>0.1215550702639513</v>
+        <v>0.1102361023838286</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>62.49926866666667</v>
+        <v>47.32925566666668</v>
       </c>
       <c r="N2">
-        <v>187.497806</v>
+        <v>141.987767</v>
       </c>
       <c r="O2">
-        <v>0.3649995688282641</v>
+        <v>0.3408416299313156</v>
       </c>
       <c r="P2">
-        <v>0.3649995688282641</v>
+        <v>0.3408416299313156</v>
       </c>
       <c r="Q2">
-        <v>4178.145547054156</v>
+        <v>2144.857016735613</v>
       </c>
       <c r="R2">
-        <v>37603.3099234874</v>
+        <v>19303.71315062052</v>
       </c>
       <c r="S2">
-        <v>0.04436754823523155</v>
+        <v>0.03757305281377953</v>
       </c>
       <c r="T2">
-        <v>0.04436754823523156</v>
+        <v>0.03757305281377954</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>66.851111</v>
+        <v>45.31778466666666</v>
       </c>
       <c r="H3">
-        <v>200.553333</v>
+        <v>135.953354</v>
       </c>
       <c r="I3">
-        <v>0.1215550702639513</v>
+        <v>0.1102361023838286</v>
       </c>
       <c r="J3">
-        <v>0.1215550702639513</v>
+        <v>0.1102361023838286</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>43.71795299999999</v>
+        <v>43.717953</v>
       </c>
       <c r="N3">
         <v>131.153859</v>
       </c>
       <c r="O3">
-        <v>0.2553155314530077</v>
+        <v>0.3148348341399153</v>
       </c>
       <c r="P3">
-        <v>0.2553155314530077</v>
+        <v>0.3148348341399154</v>
       </c>
       <c r="Q3">
-        <v>2922.593728695783</v>
+        <v>1981.200780121454</v>
       </c>
       <c r="R3">
-        <v>26303.34355826204</v>
+        <v>17830.80702109309</v>
       </c>
       <c r="S3">
-        <v>0.0310348973652484</v>
+        <v>0.03470616501024341</v>
       </c>
       <c r="T3">
-        <v>0.0310348973652484</v>
+        <v>0.03470616501024342</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>66.851111</v>
+        <v>45.31778466666666</v>
       </c>
       <c r="H4">
-        <v>200.553333</v>
+        <v>135.953354</v>
       </c>
       <c r="I4">
-        <v>0.1215550702639513</v>
+        <v>0.1102361023838286</v>
       </c>
       <c r="J4">
-        <v>0.1215550702639513</v>
+        <v>0.1102361023838286</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>19.136526</v>
+        <v>21.09134933333333</v>
       </c>
       <c r="N4">
-        <v>57.409578</v>
+        <v>63.274048</v>
       </c>
       <c r="O4">
-        <v>0.1117584875452494</v>
+        <v>0.1518893501062827</v>
       </c>
       <c r="P4">
-        <v>0.1117584875452494</v>
+        <v>0.1518893501062827</v>
       </c>
       <c r="Q4">
-        <v>1279.298023780386</v>
+        <v>955.8132274174435</v>
       </c>
       <c r="R4">
-        <v>11513.68221402347</v>
+        <v>8602.319046756991</v>
       </c>
       <c r="S4">
-        <v>0.01358481080615572</v>
+        <v>0.01674368994932937</v>
       </c>
       <c r="T4">
-        <v>0.01358481080615572</v>
+        <v>0.01674368994932938</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>66.851111</v>
+        <v>45.31778466666666</v>
       </c>
       <c r="H5">
-        <v>200.553333</v>
+        <v>135.953354</v>
       </c>
       <c r="I5">
-        <v>0.1215550702639513</v>
+        <v>0.1102361023838286</v>
       </c>
       <c r="J5">
-        <v>0.1215550702639513</v>
+        <v>0.1102361023838286</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>45.87732766666667</v>
+        <v>26.72140366666666</v>
       </c>
       <c r="N5">
-        <v>137.631983</v>
+        <v>80.16421099999999</v>
       </c>
       <c r="O5">
-        <v>0.2679264121734788</v>
+        <v>0.1924341858224863</v>
       </c>
       <c r="P5">
-        <v>0.2679264121734788</v>
+        <v>0.1924341858224864</v>
       </c>
       <c r="Q5">
-        <v>3066.950324227705</v>
+        <v>1210.954817357077</v>
       </c>
       <c r="R5">
-        <v>27602.55291804934</v>
+        <v>10898.59335621369</v>
       </c>
       <c r="S5">
-        <v>0.03256781385731559</v>
+        <v>0.02121319461047631</v>
       </c>
       <c r="T5">
-        <v>0.03256781385731559</v>
+        <v>0.02121319461047631</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>299.591797</v>
       </c>
       <c r="I6">
-        <v>0.1815821327429069</v>
+        <v>0.2429203181515272</v>
       </c>
       <c r="J6">
-        <v>0.1815821327429069</v>
+        <v>0.2429203181515272</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>62.49926866666667</v>
+        <v>47.32925566666668</v>
       </c>
       <c r="N6">
-        <v>187.497806</v>
+        <v>141.987767</v>
       </c>
       <c r="O6">
-        <v>0.3649995688282641</v>
+        <v>0.3408416299313156</v>
       </c>
       <c r="P6">
-        <v>0.3649995688282641</v>
+        <v>0.3408416299313156</v>
       </c>
       <c r="Q6">
-        <v>6241.42273701082</v>
+        <v>4726.485585283033</v>
       </c>
       <c r="R6">
-        <v>56172.80463309739</v>
+        <v>42538.3702675473</v>
       </c>
       <c r="S6">
-        <v>0.06627740015807763</v>
+        <v>0.08279735718220027</v>
       </c>
       <c r="T6">
-        <v>0.06627740015807765</v>
+        <v>0.0827973571822003</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>299.591797</v>
       </c>
       <c r="I7">
-        <v>0.1815821327429069</v>
+        <v>0.2429203181515272</v>
       </c>
       <c r="J7">
-        <v>0.1815821327429069</v>
+        <v>0.2429203181515272</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>43.71795299999999</v>
+        <v>43.717953</v>
       </c>
       <c r="N7">
         <v>131.153859</v>
       </c>
       <c r="O7">
-        <v>0.2553155314530077</v>
+        <v>0.3148348341399153</v>
       </c>
       <c r="P7">
-        <v>0.2553155314530077</v>
+        <v>0.3148348341399154</v>
       </c>
       <c r="Q7">
-        <v>4365.846700143846</v>
+        <v>4365.846700143847</v>
       </c>
       <c r="R7">
-        <v>39292.62030129461</v>
+        <v>39292.62030129463</v>
       </c>
       <c r="S7">
-        <v>0.04636073872362587</v>
+        <v>0.07647977807445151</v>
       </c>
       <c r="T7">
-        <v>0.04636073872362587</v>
+        <v>0.07647977807445155</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>299.591797</v>
       </c>
       <c r="I8">
-        <v>0.1815821327429069</v>
+        <v>0.2429203181515272</v>
       </c>
       <c r="J8">
-        <v>0.1815821327429069</v>
+        <v>0.2429203181515272</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>19.136526</v>
+        <v>21.09134933333333</v>
       </c>
       <c r="N8">
-        <v>57.409578</v>
+        <v>63.274048</v>
       </c>
       <c r="O8">
-        <v>0.1117584875452494</v>
+        <v>0.1518893501062827</v>
       </c>
       <c r="P8">
-        <v>0.1117584875452494</v>
+        <v>0.1518893501062827</v>
       </c>
       <c r="Q8">
-        <v>1911.048737559074</v>
+        <v>2106.265082642695</v>
       </c>
       <c r="R8">
-        <v>17199.43863803166</v>
+        <v>18956.38574378426</v>
       </c>
       <c r="S8">
-        <v>0.02029334452058799</v>
+        <v>0.0368970092516469</v>
       </c>
       <c r="T8">
-        <v>0.02029334452058799</v>
+        <v>0.03689700925164691</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>299.591797</v>
       </c>
       <c r="I9">
-        <v>0.1815821327429069</v>
+        <v>0.2429203181515272</v>
       </c>
       <c r="J9">
-        <v>0.1815821327429069</v>
+        <v>0.2429203181515272</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>45.87732766666667</v>
+        <v>26.72140366666666</v>
       </c>
       <c r="N9">
-        <v>137.631983</v>
+        <v>80.16421099999999</v>
       </c>
       <c r="O9">
-        <v>0.2679264121734788</v>
+        <v>0.1924341858224863</v>
       </c>
       <c r="P9">
-        <v>0.2679264121734788</v>
+        <v>0.1924341858224864</v>
       </c>
       <c r="Q9">
-        <v>4581.490345738162</v>
+        <v>2668.504447619684</v>
       </c>
       <c r="R9">
-        <v>41233.41311164346</v>
+        <v>24016.54002857716</v>
       </c>
       <c r="S9">
-        <v>0.04865064934061543</v>
+        <v>0.04674617364322848</v>
       </c>
       <c r="T9">
-        <v>0.04865064934061544</v>
+        <v>0.0467461736432285</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>14.80496566666667</v>
+        <v>16.49037766666667</v>
       </c>
       <c r="H10">
-        <v>44.414897</v>
+        <v>49.471133</v>
       </c>
       <c r="I10">
-        <v>0.02691980155523597</v>
+        <v>0.04011305879538658</v>
       </c>
       <c r="J10">
-        <v>0.02691980155523597</v>
+        <v>0.04011305879538658</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>62.49926866666667</v>
+        <v>47.32925566666668</v>
       </c>
       <c r="N10">
-        <v>187.497806</v>
+        <v>141.987767</v>
       </c>
       <c r="O10">
-        <v>0.3649995688282641</v>
+        <v>0.3408416299313156</v>
       </c>
       <c r="P10">
-        <v>0.3649995688282641</v>
+        <v>0.3408416299313156</v>
       </c>
       <c r="Q10">
-        <v>925.2995268017759</v>
+        <v>780.4773006255569</v>
       </c>
       <c r="R10">
-        <v>8327.695741215983</v>
+        <v>7024.295705630012</v>
       </c>
       <c r="S10">
-        <v>0.009825715960603561</v>
+        <v>0.01367220034135025</v>
       </c>
       <c r="T10">
-        <v>0.009825715960603562</v>
+        <v>0.01367220034135026</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>14.80496566666667</v>
+        <v>16.49037766666667</v>
       </c>
       <c r="H11">
-        <v>44.414897</v>
+        <v>49.471133</v>
       </c>
       <c r="I11">
-        <v>0.02691980155523597</v>
+        <v>0.04011305879538658</v>
       </c>
       <c r="J11">
-        <v>0.02691980155523597</v>
+        <v>0.04011305879538658</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>43.71795299999999</v>
+        <v>43.717953</v>
       </c>
       <c r="N11">
         <v>131.153859</v>
       </c>
       <c r="O11">
-        <v>0.2553155314530077</v>
+        <v>0.3148348341399153</v>
       </c>
       <c r="P11">
-        <v>0.2553155314530077</v>
+        <v>0.3148348341399154</v>
       </c>
       <c r="Q11">
-        <v>647.2427931819469</v>
+        <v>720.925555783583</v>
       </c>
       <c r="R11">
-        <v>5825.185138637522</v>
+        <v>6488.330002052247</v>
       </c>
       <c r="S11">
-        <v>0.006873043440684574</v>
+        <v>0.0126289882126902</v>
       </c>
       <c r="T11">
-        <v>0.006873043440684574</v>
+        <v>0.01262898821269021</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>14.80496566666667</v>
+        <v>16.49037766666667</v>
       </c>
       <c r="H12">
-        <v>44.414897</v>
+        <v>49.471133</v>
       </c>
       <c r="I12">
-        <v>0.02691980155523597</v>
+        <v>0.04011305879538658</v>
       </c>
       <c r="J12">
-        <v>0.02691980155523597</v>
+        <v>0.04011305879538658</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>19.136526</v>
+        <v>21.09134933333333</v>
       </c>
       <c r="N12">
-        <v>57.409578</v>
+        <v>63.274048</v>
       </c>
       <c r="O12">
-        <v>0.1117584875452494</v>
+        <v>0.1518893501062827</v>
       </c>
       <c r="P12">
-        <v>0.1117584875452494</v>
+        <v>0.1518893501062827</v>
       </c>
       <c r="Q12">
-        <v>283.315610409274</v>
+        <v>347.8043160062649</v>
       </c>
       <c r="R12">
-        <v>2549.840493683466</v>
+        <v>3130.238844056384</v>
       </c>
       <c r="S12">
-        <v>0.003008516306831425</v>
+        <v>0.006092746431206375</v>
       </c>
       <c r="T12">
-        <v>0.003008516306831425</v>
+        <v>0.006092746431206376</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>14.80496566666667</v>
+        <v>16.49037766666667</v>
       </c>
       <c r="H13">
-        <v>44.414897</v>
+        <v>49.471133</v>
       </c>
       <c r="I13">
-        <v>0.02691980155523597</v>
+        <v>0.04011305879538658</v>
       </c>
       <c r="J13">
-        <v>0.02691980155523597</v>
+        <v>0.04011305879538658</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>45.87732766666667</v>
+        <v>26.72140366666666</v>
       </c>
       <c r="N13">
-        <v>137.631983</v>
+        <v>80.16421099999999</v>
       </c>
       <c r="O13">
-        <v>0.2679264121734788</v>
+        <v>0.1924341858224863</v>
       </c>
       <c r="P13">
-        <v>0.2679264121734788</v>
+        <v>0.1924341858224864</v>
       </c>
       <c r="Q13">
-        <v>679.2122609834169</v>
+        <v>440.6460382467848</v>
       </c>
       <c r="R13">
-        <v>6112.910348850752</v>
+        <v>3965.814344221063</v>
       </c>
       <c r="S13">
-        <v>0.007212525847116409</v>
+        <v>0.00771912381013974</v>
       </c>
       <c r="T13">
-        <v>0.007212525847116409</v>
+        <v>0.007719123810139741</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>368.4456226666667</v>
+        <v>249.4253923333333</v>
       </c>
       <c r="H14">
-        <v>1105.336868</v>
+        <v>748.276177</v>
       </c>
       <c r="I14">
-        <v>0.6699429954379058</v>
+        <v>0.6067305206692575</v>
       </c>
       <c r="J14">
-        <v>0.6699429954379058</v>
+        <v>0.6067305206692575</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>62.49926866666667</v>
+        <v>47.32925566666668</v>
       </c>
       <c r="N14">
-        <v>187.497806</v>
+        <v>141.987767</v>
       </c>
       <c r="O14">
-        <v>0.3649995688282641</v>
+        <v>0.3408416299313156</v>
       </c>
       <c r="P14">
-        <v>0.3649995688282641</v>
+        <v>0.3408416299313156</v>
       </c>
       <c r="Q14">
-        <v>23027.58196010129</v>
+        <v>11805.11816350298</v>
       </c>
       <c r="R14">
-        <v>207248.2376409117</v>
+        <v>106246.0634715268</v>
       </c>
       <c r="S14">
-        <v>0.2445289044743513</v>
+        <v>0.2067990195939855</v>
       </c>
       <c r="T14">
-        <v>0.2445289044743513</v>
+        <v>0.2067990195939855</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>368.4456226666667</v>
+        <v>249.4253923333333</v>
       </c>
       <c r="H15">
-        <v>1105.336868</v>
+        <v>748.276177</v>
       </c>
       <c r="I15">
-        <v>0.6699429954379058</v>
+        <v>0.6067305206692575</v>
       </c>
       <c r="J15">
-        <v>0.6699429954379058</v>
+        <v>0.6067305206692575</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1361,28 +1361,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>43.71795299999999</v>
+        <v>43.717953</v>
       </c>
       <c r="N15">
         <v>131.153859</v>
       </c>
       <c r="O15">
-        <v>0.2553155314530077</v>
+        <v>0.3148348341399153</v>
       </c>
       <c r="P15">
-        <v>0.2553155314530077</v>
+        <v>0.3148348341399154</v>
       </c>
       <c r="Q15">
-        <v>16107.68841479707</v>
+        <v>10904.36757903523</v>
       </c>
       <c r="R15">
-        <v>144969.1957331736</v>
+        <v>98139.30821131705</v>
       </c>
       <c r="S15">
-        <v>0.1710468519234488</v>
+        <v>0.1910199028425301</v>
       </c>
       <c r="T15">
-        <v>0.1710468519234488</v>
+        <v>0.1910199028425302</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>368.4456226666667</v>
+        <v>249.4253923333333</v>
       </c>
       <c r="H16">
-        <v>1105.336868</v>
+        <v>748.276177</v>
       </c>
       <c r="I16">
-        <v>0.6699429954379058</v>
+        <v>0.6067305206692575</v>
       </c>
       <c r="J16">
-        <v>0.6699429954379058</v>
+        <v>0.6067305206692575</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>19.136526</v>
+        <v>21.09134933333333</v>
       </c>
       <c r="N16">
-        <v>57.409578</v>
+        <v>63.274048</v>
       </c>
       <c r="O16">
-        <v>0.1117584875452494</v>
+        <v>0.1518893501062827</v>
       </c>
       <c r="P16">
-        <v>0.1117584875452494</v>
+        <v>0.1518893501062827</v>
       </c>
       <c r="Q16">
-        <v>7050.769237746857</v>
+        <v>5260.718082306055</v>
       </c>
       <c r="R16">
-        <v>63456.92313972172</v>
+        <v>47346.46274075449</v>
       </c>
       <c r="S16">
-        <v>0.0748718159116743</v>
+        <v>0.09215590447410005</v>
       </c>
       <c r="T16">
-        <v>0.0748718159116743</v>
+        <v>0.09215590447410006</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>368.4456226666667</v>
+        <v>249.4253923333333</v>
       </c>
       <c r="H17">
-        <v>1105.336868</v>
+        <v>748.276177</v>
       </c>
       <c r="I17">
-        <v>0.6699429954379058</v>
+        <v>0.6067305206692575</v>
       </c>
       <c r="J17">
-        <v>0.6699429954379058</v>
+        <v>0.6067305206692575</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>45.87732766666667</v>
+        <v>26.72140366666666</v>
       </c>
       <c r="N17">
-        <v>137.631983</v>
+        <v>80.16421099999999</v>
       </c>
       <c r="O17">
-        <v>0.2679264121734788</v>
+        <v>0.1924341858224863</v>
       </c>
       <c r="P17">
-        <v>0.2679264121734788</v>
+        <v>0.1924341858224864</v>
       </c>
       <c r="Q17">
-        <v>16903.3005584277</v>
+        <v>6664.996593255704</v>
       </c>
       <c r="R17">
-        <v>152129.7050258493</v>
+        <v>59984.96933930134</v>
       </c>
       <c r="S17">
-        <v>0.1794954231284314</v>
+        <v>0.1167556937586418</v>
       </c>
       <c r="T17">
-        <v>0.1794954231284314</v>
+        <v>0.1167556937586418</v>
       </c>
     </row>
   </sheetData>
